--- a/IOexcel/04-05-2024.xlsx
+++ b/IOexcel/04-05-2024.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Java\swing-02-computer-management\IOexcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43D916-B283-43D9-BEA2-CB6CC7D8C19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Computer" r:id="rId3" sheetId="1"/>
+    <sheet name="Computer" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="156">
   <si>
     <t>Mã máy</t>
   </si>
@@ -485,11 +493,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -501,7 +508,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -519,954 +526,3084 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:I106"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="F13" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>83</v>
       </c>
-      <c r="H16" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>84</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>87</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="G18" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="G19" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>91</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>93</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>82</v>
       </c>
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>97</v>
       </c>
-      <c r="H21" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>98</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>99</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>101</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>102</v>
       </c>
-      <c r="G22" t="s" s="0">
+      <c r="G22" t="s">
         <v>97</v>
       </c>
-      <c r="H22" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>104</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>105</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>82</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>97</v>
       </c>
-      <c r="H23" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>106</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>107</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>105</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>108</v>
       </c>
-      <c r="F24" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>109</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>110</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>111</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>115</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>116</v>
       </c>
-      <c r="F26" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>117</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>118</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>119</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>120</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>20</v>
       </c>
-      <c r="G27" t="s" s="0">
+      <c r="G27" t="s">
         <v>121</v>
       </c>
-      <c r="H27" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>122</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>123</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>124</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="D28" t="s">
         <v>125</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>126</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>82</v>
       </c>
-      <c r="G28" t="s" s="0">
+      <c r="G28" t="s">
         <v>127</v>
       </c>
-      <c r="H28" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>128</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>129</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>130</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="D29" t="s">
         <v>131</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>132</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>133</v>
       </c>
-      <c r="G29" t="s" s="0">
+      <c r="G29" t="s">
         <v>134</v>
       </c>
-      <c r="H29" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>135</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>137</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>138</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>139</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>20</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="G30" t="s">
         <v>121</v>
       </c>
-      <c r="H30" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>140</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>141</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>142</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>139</v>
       </c>
-      <c r="F31" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>143</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>144</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>145</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>146</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>120</v>
       </c>
-      <c r="F32" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s" s="0">
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
         <v>121</v>
       </c>
-      <c r="H32" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>147</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>148</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>149</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>150</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>151</v>
       </c>
-      <c r="F33" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s" s="0">
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
         <v>121</v>
       </c>
-      <c r="H33" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>136</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>88</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>138</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>139</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>20</v>
       </c>
-      <c r="G34" t="s" s="0">
+      <c r="G34" t="s">
         <v>121</v>
       </c>
-      <c r="H34" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>153</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>154</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>131</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="E35" t="s">
         <v>132</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="F35" t="s">
         <v>133</v>
       </c>
-      <c r="G35" t="s" s="0">
+      <c r="G35" t="s">
         <v>134</v>
       </c>
-      <c r="H35" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>155</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>148</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D36" t="s">
         <v>150</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="E36" t="s">
         <v>151</v>
       </c>
-      <c r="F36" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G36" t="s" s="0">
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
         <v>121</v>
       </c>
-      <c r="H36" t="s" s="0">
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64" t="s">
+        <v>134</v>
+      </c>
+      <c r="H64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>121</v>
+      </c>
+      <c r="H71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" t="s">
+        <v>81</v>
+      </c>
+      <c r="F86" t="s">
+        <v>82</v>
+      </c>
+      <c r="G86" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>82</v>
+      </c>
+      <c r="G91" t="s">
+        <v>97</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" t="s">
+        <v>82</v>
+      </c>
+      <c r="G93" t="s">
+        <v>97</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" t="s">
+        <v>108</v>
+      </c>
+      <c r="F94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" t="s">
+        <v>116</v>
+      </c>
+      <c r="F96" t="s">
+        <v>37</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>121</v>
+      </c>
+      <c r="H97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" t="s">
+        <v>82</v>
+      </c>
+      <c r="G98" t="s">
+        <v>127</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" t="s">
+        <v>132</v>
+      </c>
+      <c r="F99" t="s">
+        <v>133</v>
+      </c>
+      <c r="G99" t="s">
+        <v>134</v>
+      </c>
+      <c r="H99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>121</v>
+      </c>
+      <c r="H100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
+        <v>121</v>
+      </c>
+      <c r="H102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" t="s">
+        <v>150</v>
+      </c>
+      <c r="E103" t="s">
+        <v>151</v>
+      </c>
+      <c r="F103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
+        <v>121</v>
+      </c>
+      <c r="H103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" t="s">
+        <v>133</v>
+      </c>
+      <c r="G105" t="s">
+        <v>134</v>
+      </c>
+      <c r="H105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s">
+        <v>121</v>
+      </c>
+      <c r="H106" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IOexcel/04-05-2024.xlsx
+++ b/IOexcel/04-05-2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Java\swing-02-computer-management\IOexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8470C4BB-E0A5-4266-ADBC-7BC68ECDC7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E84D286-9F6F-4C35-84F1-39A947E6282E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="156">
   <si>
     <t>Mã máy</t>
   </si>
@@ -839,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:I71"/>
+      <selection activeCell="I56" sqref="A53:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2199,110 +2199,6 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" t="s">
-        <v>97</v>
-      </c>
-      <c r="H56" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
